--- a/biology/Zoologie/Hyphantria/Hyphantria.xlsx
+++ b/biology/Zoologie/Hyphantria/Hyphantria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphantria est un genre de lépidoptères (papillons) de la famille des Erebidae et de la sous-famille des Arctiinae.
-Ses espèces sont originaires du continent américain, mais l'une d'entre elles a été introduite en Europe et en Asie : Hyphantria cunea, l'Écaille fileuse[1].
+Ses espèces sont originaires du continent américain, mais l'une d'entre elles a été introduite en Europe et en Asie : Hyphantria cunea, l'Écaille fileuse.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FUNET Tree of Life  (4 novembre 2020)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FUNET Tree of Life  (4 novembre 2020) :
 Hyphantria cunea (Drury, 1773)
 Hyphantria penthetria Dyar, 1912
 Hyphantria orizaba (Druce, 1897)
